--- a/Code/Results/Cases/Case_5_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.26689233206605</v>
+        <v>0.7667715243641169</v>
       </c>
       <c r="C2">
-        <v>0.3864267224026037</v>
+        <v>0.2713778478185418</v>
       </c>
       <c r="D2">
-        <v>0.08934365274588174</v>
+        <v>0.08107532069041667</v>
       </c>
       <c r="E2">
-        <v>0.1342973236621248</v>
+        <v>0.1350018207780934</v>
       </c>
       <c r="F2">
-        <v>1.8197994347166</v>
+        <v>2.729558823629873</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.8330834083737528</v>
+        <v>1.369635133289769</v>
       </c>
       <c r="J2">
-        <v>0.207941634417196</v>
+        <v>0.2156021860240713</v>
       </c>
       <c r="K2">
-        <v>1.631343070472695</v>
+        <v>1.030382707340493</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.367418896156885</v>
+        <v>2.548320960721085</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.101998248630764</v>
+        <v>0.7263890224817544</v>
       </c>
       <c r="C3">
-        <v>0.3383445111321635</v>
+        <v>0.2603134060759658</v>
       </c>
       <c r="D3">
-        <v>0.07786447159216436</v>
+        <v>0.07855395878265625</v>
       </c>
       <c r="E3">
-        <v>0.1190299556991512</v>
+        <v>0.1318959325522506</v>
       </c>
       <c r="F3">
-        <v>1.715627582781806</v>
+        <v>2.71753019567916</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.8056933265299691</v>
+        <v>1.369253655889828</v>
       </c>
       <c r="J3">
-        <v>0.1863683806269592</v>
+        <v>0.2113600284143686</v>
       </c>
       <c r="K3">
-        <v>1.421147412607979</v>
+        <v>0.9797632597493759</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.405347126153714</v>
+        <v>2.564830886544563</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.001989606570561</v>
+        <v>0.7020253158227376</v>
       </c>
       <c r="C4">
-        <v>0.309354522459131</v>
+        <v>0.2536840887005667</v>
       </c>
       <c r="D4">
-        <v>0.07087884341281381</v>
+        <v>0.07704666928802339</v>
       </c>
       <c r="E4">
-        <v>0.1098255054972341</v>
+        <v>0.1300628855400099</v>
       </c>
       <c r="F4">
-        <v>1.654758807482196</v>
+        <v>2.711447463746978</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.7902999092184615</v>
+        <v>1.369619534222117</v>
       </c>
       <c r="J4">
-        <v>0.1734422392747632</v>
+        <v>0.2088774292417952</v>
       </c>
       <c r="K4">
-        <v>1.29385692614423</v>
+        <v>0.9492766824184287</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.430339937272244</v>
+        <v>2.575691282604808</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9615090707500826</v>
+        <v>0.6922053995450312</v>
       </c>
       <c r="C5">
-        <v>0.2976600692019531</v>
+        <v>0.2510237924602166</v>
       </c>
       <c r="D5">
-        <v>0.06804599847610149</v>
+        <v>0.07644274143563479</v>
       </c>
       <c r="E5">
-        <v>0.1061132250857746</v>
+        <v>0.1293345034873283</v>
       </c>
       <c r="F5">
-        <v>1.630679126490222</v>
+        <v>2.709296048314144</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.7843635410023992</v>
+        <v>1.369919395441826</v>
       </c>
       <c r="J5">
-        <v>0.168247911834051</v>
+        <v>0.2078964048938019</v>
       </c>
       <c r="K5">
-        <v>1.242378437597978</v>
+        <v>0.9370024204895344</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.44093719230824</v>
+        <v>2.58029867709061</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9548028034362517</v>
+        <v>0.690581363775209</v>
       </c>
       <c r="C6">
-        <v>0.295725001979747</v>
+        <v>0.2505845378130402</v>
       </c>
       <c r="D6">
-        <v>0.06757639055235387</v>
+        <v>0.07634308313520677</v>
       </c>
       <c r="E6">
-        <v>0.1054990213043965</v>
+        <v>0.1292146794776379</v>
       </c>
       <c r="F6">
-        <v>1.626723010691947</v>
+        <v>2.70895857048167</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.7833975367956114</v>
+        <v>1.369978288872019</v>
       </c>
       <c r="J6">
-        <v>0.1673896143731994</v>
+        <v>0.2077353566308275</v>
       </c>
       <c r="K6">
-        <v>1.233852787510813</v>
+        <v>0.9349733014612411</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.4427213191939</v>
+        <v>2.581074700493801</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.001442610741378</v>
+        <v>0.7018924416694858</v>
       </c>
       <c r="C7">
-        <v>0.3091963430714202</v>
+        <v>0.2536480443219489</v>
       </c>
       <c r="D7">
-        <v>0.07084058498881518</v>
+        <v>0.07703848273320801</v>
       </c>
       <c r="E7">
-        <v>0.1097752892646398</v>
+        <v>0.1300529870200577</v>
       </c>
       <c r="F7">
-        <v>1.654431193062493</v>
+        <v>2.711417123964551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.7902185139445663</v>
+        <v>1.369622968012912</v>
       </c>
       <c r="J7">
-        <v>0.1733718997059199</v>
+        <v>0.2088640747467352</v>
       </c>
       <c r="K7">
-        <v>1.293161142219219</v>
+        <v>0.9491105431762605</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.430481206006519</v>
+        <v>2.575752684098731</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.209756854074953</v>
+        <v>0.7527581237681318</v>
       </c>
       <c r="C8">
-        <v>0.3697282031450015</v>
+        <v>0.2675286589347934</v>
       </c>
       <c r="D8">
-        <v>0.08537144734509639</v>
+        <v>0.08019749994583236</v>
       </c>
       <c r="E8">
-        <v>0.1289953500388243</v>
+        <v>0.1339155521334803</v>
       </c>
       <c r="F8">
-        <v>1.783205960870418</v>
+        <v>2.725140758814689</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.8233302763569981</v>
+        <v>1.369378960174032</v>
       </c>
       <c r="J8">
-        <v>0.2004322410447159</v>
+        <v>0.214114116242186</v>
       </c>
       <c r="K8">
-        <v>1.558467799787167</v>
+        <v>1.012805768017472</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.380132643067384</v>
+        <v>2.553863374647477</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.629909795458673</v>
+        <v>0.8559326802435123</v>
       </c>
       <c r="C9">
-        <v>0.4933842384203615</v>
+        <v>0.296058816568916</v>
       </c>
       <c r="D9">
-        <v>0.1144570085354388</v>
+        <v>0.08671518670705325</v>
       </c>
       <c r="E9">
-        <v>0.1682335978780003</v>
+        <v>0.1420777950149485</v>
       </c>
       <c r="F9">
-        <v>2.062870657667588</v>
+        <v>2.762407981765506</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.9006171004602095</v>
+        <v>1.373669887941467</v>
       </c>
       <c r="J9">
-        <v>0.2563928283222339</v>
+        <v>0.2253812985054395</v>
       </c>
       <c r="K9">
-        <v>2.095331634800459</v>
+        <v>1.142437021404817</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.295714210960043</v>
+        <v>2.516684461755077</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.948502846087422</v>
+        <v>0.9338402286480232</v>
       </c>
       <c r="C10">
-        <v>0.5883674482458332</v>
+        <v>0.3178306191757656</v>
       </c>
       <c r="D10">
-        <v>0.136329568096798</v>
+        <v>0.09169963031988004</v>
       </c>
       <c r="E10">
-        <v>0.1983118440163878</v>
+        <v>0.1484348237307174</v>
       </c>
       <c r="F10">
-        <v>2.288837380311179</v>
+        <v>2.796132083912909</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.9665355552137456</v>
+        <v>1.379743150831587</v>
       </c>
       <c r="J10">
-        <v>0.2998169682210801</v>
+        <v>0.2342571856878664</v>
       </c>
       <c r="K10">
-        <v>2.50378558836988</v>
+        <v>1.240586262868874</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.243615792344713</v>
+        <v>2.492882011755839</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.09628531933032</v>
+        <v>0.9697435849798808</v>
       </c>
       <c r="C11">
-        <v>0.632753002053164</v>
+        <v>0.3279139580942001</v>
       </c>
       <c r="D11">
-        <v>0.1464246778810576</v>
+        <v>0.09400957029909307</v>
       </c>
       <c r="E11">
-        <v>0.2123425062003008</v>
+        <v>0.1514054942527068</v>
       </c>
       <c r="F11">
-        <v>2.397067262705562</v>
+        <v>2.812858823555274</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.9989053403926391</v>
+        <v>1.383143276038645</v>
       </c>
       <c r="J11">
-        <v>0.3202085861341288</v>
+        <v>0.2384261352473231</v>
       </c>
       <c r="K11">
-        <v>2.693614767594852</v>
+        <v>1.28587555827599</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.222368311591538</v>
+        <v>2.48281869244326</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.152721006017487</v>
+        <v>0.9834059455105262</v>
       </c>
       <c r="C12">
-        <v>0.6497557794582747</v>
+        <v>0.3317582010884905</v>
       </c>
       <c r="D12">
-        <v>0.150271545023827</v>
+        <v>0.09489036937669937</v>
       </c>
       <c r="E12">
-        <v>0.2177125868977825</v>
+        <v>0.1525417665049886</v>
       </c>
       <c r="F12">
-        <v>2.438923974139755</v>
+        <v>2.8193925047389</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.011542655220332</v>
+        <v>1.384522680477382</v>
       </c>
       <c r="J12">
-        <v>0.3280346117296915</v>
+        <v>0.2400237617332834</v>
       </c>
       <c r="K12">
-        <v>2.766165931446693</v>
+        <v>1.3031178968738</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.214703226304692</v>
+        <v>2.479118127891965</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.140544425095413</v>
+        <v>0.9804605525687293</v>
       </c>
       <c r="C13">
-        <v>0.6460848196497579</v>
+        <v>0.3309291205552256</v>
       </c>
       <c r="D13">
-        <v>0.1494419287013358</v>
+        <v>0.09470040390853285</v>
       </c>
       <c r="E13">
-        <v>0.2165533918826341</v>
+        <v>0.1522965452825318</v>
       </c>
       <c r="F13">
-        <v>2.429869038331475</v>
+        <v>2.817976474662643</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.008803473318203</v>
+        <v>1.384221512768022</v>
       </c>
       <c r="J13">
-        <v>0.3263442922845741</v>
+        <v>0.2396788411433022</v>
       </c>
       <c r="K13">
-        <v>2.750509565655534</v>
+        <v>1.29940034505529</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.216336618496925</v>
+        <v>2.479910205533386</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.100918437824873</v>
+        <v>0.9708662621333133</v>
       </c>
       <c r="C14">
-        <v>0.634147767387077</v>
+        <v>0.3282297064401121</v>
       </c>
       <c r="D14">
-        <v>0.1467406601856993</v>
+        <v>0.09408191261927357</v>
       </c>
       <c r="E14">
-        <v>0.2127831218512242</v>
+        <v>0.15149874865633</v>
       </c>
       <c r="F14">
-        <v>2.400492802775261</v>
+        <v>2.813392350290613</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.9999371877312981</v>
+        <v>1.38325491849843</v>
       </c>
       <c r="J14">
-        <v>0.3208502744698336</v>
+        <v>0.2385571930909407</v>
       </c>
       <c r="K14">
-        <v>2.699569687675933</v>
+        <v>1.287292245936527</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.221729894779529</v>
+        <v>2.482512034789238</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.076710054642035</v>
+        <v>0.9649981471704905</v>
       </c>
       <c r="C15">
-        <v>0.6268621717853193</v>
+        <v>0.3265796142914894</v>
       </c>
       <c r="D15">
-        <v>0.1450892897038045</v>
+        <v>0.09370385894267486</v>
       </c>
       <c r="E15">
-        <v>0.2104813602761055</v>
+        <v>0.1510115527514202</v>
       </c>
       <c r="F15">
-        <v>2.382615471956541</v>
+        <v>2.810610451141017</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.9945569235555709</v>
+        <v>1.382674819222736</v>
       </c>
       <c r="J15">
-        <v>0.3174989864533018</v>
+        <v>0.2378726190697336</v>
       </c>
       <c r="K15">
-        <v>2.668457189170738</v>
+        <v>1.279887705305896</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.225083921947459</v>
+        <v>2.484120088820973</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.938907599715861</v>
+        <v>0.9315031716757858</v>
       </c>
       <c r="C16">
-        <v>0.5854925681676946</v>
+        <v>0.3171752668032184</v>
       </c>
       <c r="D16">
-        <v>0.1356730160646578</v>
+        <v>0.09154952232107405</v>
       </c>
       <c r="E16">
-        <v>0.1974024860511463</v>
+        <v>0.148242270340873</v>
       </c>
       <c r="F16">
-        <v>2.281881239585644</v>
+        <v>2.795066865316443</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.9644711372767034</v>
+        <v>1.379533786977774</v>
       </c>
       <c r="J16">
-        <v>0.2984981972377199</v>
+        <v>0.2339873815184319</v>
       </c>
       <c r="K16">
-        <v>2.491468104744229</v>
+        <v>1.237639404777156</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.245056059467913</v>
+        <v>2.493555079582023</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.855144118627436</v>
+        <v>0.9110736169458278</v>
       </c>
       <c r="C17">
-        <v>0.5604325879015732</v>
+        <v>0.3114520009980879</v>
       </c>
       <c r="D17">
-        <v>0.1299357950158537</v>
+        <v>0.09023876444084067</v>
       </c>
       <c r="E17">
-        <v>0.1894728559548682</v>
+        <v>0.1465636005731312</v>
       </c>
       <c r="F17">
-        <v>2.221538121848596</v>
+        <v>2.785886513406737</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.9466499546806517</v>
+        <v>1.377770250478875</v>
       </c>
       <c r="J17">
-        <v>0.2870136429184384</v>
+        <v>0.2316375764879268</v>
       </c>
       <c r="K17">
-        <v>2.383981344556986</v>
+        <v>1.211885634241668</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.257955603926732</v>
+        <v>2.499539137773297</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.80722995302483</v>
+        <v>0.899366640933863</v>
       </c>
       <c r="C18">
-        <v>0.5461278685426123</v>
+        <v>0.3081769927461266</v>
       </c>
       <c r="D18">
-        <v>0.1266493529207082</v>
+        <v>0.08948885277109753</v>
       </c>
       <c r="E18">
-        <v>0.1849442353180564</v>
+        <v>0.1456054930735107</v>
       </c>
       <c r="F18">
-        <v>2.187336121825481</v>
+        <v>2.78073660107033</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.9366215771336641</v>
+        <v>1.376815890890114</v>
       </c>
       <c r="J18">
-        <v>0.2804672431240931</v>
+        <v>0.2302983823198161</v>
       </c>
       <c r="K18">
-        <v>2.322530502352663</v>
+        <v>1.197133045249188</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.265604052855679</v>
+        <v>2.503052955670555</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.791050615488587</v>
+        <v>0.8954103426145252</v>
       </c>
       <c r="C19">
-        <v>0.5413025391936799</v>
+        <v>0.3070710235913907</v>
       </c>
       <c r="D19">
-        <v>0.1255388388284189</v>
+        <v>0.08923563392454525</v>
       </c>
       <c r="E19">
-        <v>0.1834162680905465</v>
+        <v>0.1452823682927118</v>
       </c>
       <c r="F19">
-        <v>2.175840163411905</v>
+        <v>2.779015310707862</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.9332631875429414</v>
+        <v>1.376503056773842</v>
       </c>
       <c r="J19">
-        <v>0.2782605552523165</v>
+        <v>0.2298470737540725</v>
       </c>
       <c r="K19">
-        <v>2.301785756405963</v>
+        <v>1.192148424559775</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.268232199366011</v>
+        <v>2.504255023080361</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.864033083214167</v>
+        <v>0.9132438693823417</v>
       </c>
       <c r="C20">
-        <v>0.5630887949588725</v>
+        <v>0.3120595062557356</v>
       </c>
       <c r="D20">
-        <v>0.1305451172319039</v>
+        <v>0.09037788296335236</v>
       </c>
       <c r="E20">
-        <v>0.1903135883295093</v>
+        <v>0.1467415299417496</v>
       </c>
       <c r="F20">
-        <v>2.227908777446302</v>
+        <v>2.786850280489276</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.9485238293015144</v>
+        <v>1.37795177281636</v>
       </c>
       <c r="J20">
-        <v>0.2882299789094276</v>
+        <v>0.2318864384756978</v>
       </c>
       <c r="K20">
-        <v>2.39538430671999</v>
+        <v>1.214620925465169</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.256558532461341</v>
+        <v>2.498894676571567</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.112544157927971</v>
+        <v>0.9736825320529761</v>
       </c>
       <c r="C21">
-        <v>0.6376484605842165</v>
+        <v>0.3290218858192873</v>
       </c>
       <c r="D21">
-        <v>0.1475334080178357</v>
+        <v>0.09426341391038306</v>
       </c>
       <c r="E21">
-        <v>0.2138889364646985</v>
+        <v>0.1517327729250368</v>
       </c>
       <c r="F21">
-        <v>2.409096869633601</v>
+        <v>2.814733397683355</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.002530816206175</v>
+        <v>1.383536336264996</v>
       </c>
       <c r="J21">
-        <v>0.3224610680811253</v>
+        <v>0.2388861339178874</v>
       </c>
       <c r="K21">
-        <v>2.714513110774561</v>
+        <v>1.290846183014111</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.220135182157051</v>
+        <v>2.481744821705547</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.277755664855192</v>
+        <v>1.013570527292586</v>
       </c>
       <c r="C22">
-        <v>0.68752766343286</v>
+        <v>0.3402588151399186</v>
       </c>
       <c r="D22">
-        <v>0.1587782407820697</v>
+        <v>0.09683822632078432</v>
       </c>
       <c r="E22">
-        <v>0.2296326209564583</v>
+        <v>0.1550609635158651</v>
       </c>
       <c r="F22">
-        <v>2.532647811510387</v>
+        <v>2.834120401188855</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.040059927061904</v>
+        <v>1.387721642510087</v>
       </c>
       <c r="J22">
-        <v>0.3454469405404552</v>
+        <v>0.2435712402599393</v>
       </c>
       <c r="K22">
-        <v>2.927017833952306</v>
+        <v>1.34120165432185</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.198565767432854</v>
+        <v>2.471178829844646</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.189300735302083</v>
+        <v>0.9922460700461784</v>
       </c>
       <c r="C23">
-        <v>0.6607917482681387</v>
+        <v>0.3342475922457595</v>
       </c>
       <c r="D23">
-        <v>0.1527625298473083</v>
+        <v>0.09546077353677163</v>
       </c>
       <c r="E23">
-        <v>0.2211967089105684</v>
+        <v>0.1532785921243374</v>
       </c>
       <c r="F23">
-        <v>2.466204137007566</v>
+        <v>2.823666573541075</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.019812465254887</v>
+        <v>1.385438803817422</v>
       </c>
       <c r="J23">
-        <v>0.3331183186798086</v>
+        <v>0.2410605890286348</v>
       </c>
       <c r="K23">
-        <v>2.813208203259876</v>
+        <v>1.314276732149125</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.209863109948998</v>
+        <v>2.476759230073668</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.860013631470707</v>
+        <v>0.9122625791182202</v>
       </c>
       <c r="C24">
-        <v>0.5618876060859463</v>
+        <v>0.3117848052527563</v>
       </c>
       <c r="D24">
-        <v>0.1302696056341972</v>
+        <v>0.09031497607631422</v>
       </c>
       <c r="E24">
-        <v>0.1899333995813919</v>
+        <v>0.1466610663279013</v>
       </c>
       <c r="F24">
-        <v>2.225027084353243</v>
+        <v>2.786414162706535</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.9476759766178446</v>
+        <v>1.377869521164669</v>
       </c>
       <c r="J24">
-        <v>0.287679899209536</v>
+        <v>0.2317738914090484</v>
       </c>
       <c r="K24">
-        <v>2.390227960366246</v>
+        <v>1.213384133365366</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.257189426915843</v>
+        <v>2.499185808514724</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.514725563059216</v>
+        <v>0.8276527040742963</v>
       </c>
       <c r="C25">
-        <v>0.4592930225859675</v>
+        <v>0.2881991530480832</v>
       </c>
       <c r="D25">
-        <v>0.1065113116494274</v>
+        <v>0.08491751243845158</v>
       </c>
       <c r="E25">
-        <v>0.157422920671749</v>
+        <v>0.1398065722140842</v>
       </c>
       <c r="F25">
-        <v>1.983922018402396</v>
+        <v>2.751214431737068</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.8782294313340202</v>
+        <v>1.371997131505609</v>
       </c>
       <c r="J25">
-        <v>0.2408907573473442</v>
+        <v>0.2222286259927131</v>
       </c>
       <c r="K25">
-        <v>1.947937155813634</v>
+        <v>1.106859545683704</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.316902375614148</v>
+        <v>2.526126182015986</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_71/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7667715243641169</v>
+        <v>1.266892332065993</v>
       </c>
       <c r="C2">
-        <v>0.2713778478185418</v>
+        <v>0.3864267224025753</v>
       </c>
       <c r="D2">
-        <v>0.08107532069041667</v>
+        <v>0.08934365274588174</v>
       </c>
       <c r="E2">
-        <v>0.1350018207780934</v>
+        <v>0.1342973236620679</v>
       </c>
       <c r="F2">
-        <v>2.729558823629873</v>
+        <v>1.819799434716657</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>1.369635133289769</v>
+        <v>0.8330834083737741</v>
       </c>
       <c r="J2">
-        <v>0.2156021860240713</v>
+        <v>0.2079416344171818</v>
       </c>
       <c r="K2">
-        <v>1.030382707340493</v>
+        <v>1.631343070472781</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.548320960721085</v>
+        <v>1.36741889615692</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7263890224817544</v>
+        <v>1.101998248630736</v>
       </c>
       <c r="C3">
-        <v>0.2603134060759658</v>
+        <v>0.3383445111320782</v>
       </c>
       <c r="D3">
-        <v>0.07855395878265625</v>
+        <v>0.07786447159227805</v>
       </c>
       <c r="E3">
-        <v>0.1318959325522506</v>
+        <v>0.1190299556991512</v>
       </c>
       <c r="F3">
-        <v>2.71753019567916</v>
+        <v>1.715627582781806</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.369253655889828</v>
+        <v>0.8056933265299691</v>
       </c>
       <c r="J3">
-        <v>0.2113600284143686</v>
+        <v>0.1863683806270586</v>
       </c>
       <c r="K3">
-        <v>0.9797632597493759</v>
+        <v>1.421147412608093</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.564830886544563</v>
+        <v>1.405347126153764</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7020253158227376</v>
+        <v>1.001989606570561</v>
       </c>
       <c r="C4">
-        <v>0.2536840887005667</v>
+        <v>0.3093545224589889</v>
       </c>
       <c r="D4">
-        <v>0.07704666928802339</v>
+        <v>0.07087884341273565</v>
       </c>
       <c r="E4">
-        <v>0.1300628855400099</v>
+        <v>0.1098255054972377</v>
       </c>
       <c r="F4">
-        <v>2.711447463746978</v>
+        <v>1.654758807482182</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.369619534222117</v>
+        <v>0.7902999092184402</v>
       </c>
       <c r="J4">
-        <v>0.2088774292417952</v>
+        <v>0.1734422392748129</v>
       </c>
       <c r="K4">
-        <v>0.9492766824184287</v>
+        <v>1.293856926144258</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.575691282604808</v>
+        <v>1.430339937272215</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6922053995450312</v>
+        <v>0.9615090707501395</v>
       </c>
       <c r="C5">
-        <v>0.2510237924602166</v>
+        <v>0.2976600692018678</v>
       </c>
       <c r="D5">
-        <v>0.07644274143563479</v>
+        <v>0.06804599847592385</v>
       </c>
       <c r="E5">
-        <v>0.1293345034873283</v>
+        <v>0.1061132250858137</v>
       </c>
       <c r="F5">
-        <v>2.709296048314144</v>
+        <v>1.630679126490222</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.369919395441826</v>
+        <v>0.7843635410024064</v>
       </c>
       <c r="J5">
-        <v>0.2078964048938019</v>
+        <v>0.1682479118340297</v>
       </c>
       <c r="K5">
-        <v>0.9370024204895344</v>
+        <v>1.242378437598006</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.58029867709061</v>
+        <v>1.440937192308247</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.690581363775209</v>
+        <v>0.9548028034363654</v>
       </c>
       <c r="C6">
-        <v>0.2505845378130402</v>
+        <v>0.2957250019797755</v>
       </c>
       <c r="D6">
-        <v>0.07634308313520677</v>
+        <v>0.06757639055228282</v>
       </c>
       <c r="E6">
-        <v>0.1292146794776379</v>
+        <v>0.1054990213043787</v>
       </c>
       <c r="F6">
-        <v>2.70895857048167</v>
+        <v>1.626723010691961</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.369978288872019</v>
+        <v>0.7833975367956256</v>
       </c>
       <c r="J6">
-        <v>0.2077353566308275</v>
+        <v>0.1673896143732421</v>
       </c>
       <c r="K6">
-        <v>0.9349733014612411</v>
+        <v>1.233852787510841</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.581074700493801</v>
+        <v>1.442721319193943</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7018924416694858</v>
+        <v>1.001442610741407</v>
       </c>
       <c r="C7">
-        <v>0.2536480443219489</v>
+        <v>0.3091963430715623</v>
       </c>
       <c r="D7">
-        <v>0.07703848273320801</v>
+        <v>0.07084058498912071</v>
       </c>
       <c r="E7">
-        <v>0.1300529870200577</v>
+        <v>0.1097752892646398</v>
       </c>
       <c r="F7">
-        <v>2.711417123964551</v>
+        <v>1.654431193062479</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.369622968012912</v>
+        <v>0.7902185139445663</v>
       </c>
       <c r="J7">
-        <v>0.2088640747467352</v>
+        <v>0.1733718997058986</v>
       </c>
       <c r="K7">
-        <v>0.9491105431762605</v>
+        <v>1.293161142219134</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.575752684098731</v>
+        <v>1.43048120600649</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7527581237681318</v>
+        <v>1.209756854074982</v>
       </c>
       <c r="C8">
-        <v>0.2675286589347934</v>
+        <v>0.3697282031448594</v>
       </c>
       <c r="D8">
-        <v>0.08019749994583236</v>
+        <v>0.0853714473449898</v>
       </c>
       <c r="E8">
-        <v>0.1339155521334803</v>
+        <v>0.1289953500388421</v>
       </c>
       <c r="F8">
-        <v>2.725140758814689</v>
+        <v>1.783205960870404</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.369378960174032</v>
+        <v>0.8233302763569839</v>
       </c>
       <c r="J8">
-        <v>0.214114116242186</v>
+        <v>0.2004322410446733</v>
       </c>
       <c r="K8">
-        <v>1.012805768017472</v>
+        <v>1.558467799787138</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.553863374647477</v>
+        <v>1.380132643067398</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8559326802435123</v>
+        <v>1.629909795458531</v>
       </c>
       <c r="C9">
-        <v>0.296058816568916</v>
+        <v>0.4933842384203899</v>
       </c>
       <c r="D9">
-        <v>0.08671518670705325</v>
+        <v>0.1144570085355383</v>
       </c>
       <c r="E9">
-        <v>0.1420777950149485</v>
+        <v>0.1682335978779577</v>
       </c>
       <c r="F9">
-        <v>2.762407981765506</v>
+        <v>2.062870657667588</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.373669887941467</v>
+        <v>0.9006171004602308</v>
       </c>
       <c r="J9">
-        <v>0.2253812985054395</v>
+        <v>0.2563928283222765</v>
       </c>
       <c r="K9">
-        <v>1.142437021404817</v>
+        <v>2.095331634800516</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.516684461755077</v>
+        <v>1.295714210959986</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9338402286480232</v>
+        <v>1.948502846087422</v>
       </c>
       <c r="C10">
-        <v>0.3178306191757656</v>
+        <v>0.5883674482461743</v>
       </c>
       <c r="D10">
-        <v>0.09169963031988004</v>
+        <v>0.1363295680968974</v>
       </c>
       <c r="E10">
-        <v>0.1484348237307174</v>
+        <v>0.1983118440163736</v>
       </c>
       <c r="F10">
-        <v>2.796132083912909</v>
+        <v>2.288837380311179</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.379743150831587</v>
+        <v>0.9665355552137527</v>
       </c>
       <c r="J10">
-        <v>0.2342571856878664</v>
+        <v>0.2998169682210232</v>
       </c>
       <c r="K10">
-        <v>1.240586262868874</v>
+        <v>2.503785588369851</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.492882011755839</v>
+        <v>1.243615792344713</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9697435849798808</v>
+        <v>2.096285319330434</v>
       </c>
       <c r="C11">
-        <v>0.3279139580942001</v>
+        <v>0.6327530020527661</v>
       </c>
       <c r="D11">
-        <v>0.09400957029909307</v>
+        <v>0.1464246778810434</v>
       </c>
       <c r="E11">
-        <v>0.1514054942527068</v>
+        <v>0.2123425062002937</v>
       </c>
       <c r="F11">
-        <v>2.812858823555274</v>
+        <v>2.397067262705576</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.383143276038645</v>
+        <v>0.998905340392632</v>
       </c>
       <c r="J11">
-        <v>0.2384261352473231</v>
+        <v>0.3202085861341573</v>
       </c>
       <c r="K11">
-        <v>1.28587555827599</v>
+        <v>2.69361476759488</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.48281869244326</v>
+        <v>1.222368311591566</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9834059455105262</v>
+        <v>2.1527210060176</v>
       </c>
       <c r="C12">
-        <v>0.3317582010884905</v>
+        <v>0.6497557794582463</v>
       </c>
       <c r="D12">
-        <v>0.09489036937669937</v>
+        <v>0.1502715450238128</v>
       </c>
       <c r="E12">
-        <v>0.1525417665049886</v>
+        <v>0.2177125868978109</v>
       </c>
       <c r="F12">
-        <v>2.8193925047389</v>
+        <v>2.438923974139769</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.384522680477382</v>
+        <v>1.011542655220346</v>
       </c>
       <c r="J12">
-        <v>0.2400237617332834</v>
+        <v>0.3280346117296631</v>
       </c>
       <c r="K12">
-        <v>1.3031178968738</v>
+        <v>2.76616593144675</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.479118127891965</v>
+        <v>1.214703226304707</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9804605525687293</v>
+        <v>2.140544425095527</v>
       </c>
       <c r="C13">
-        <v>0.3309291205552256</v>
+        <v>0.6460848196500422</v>
       </c>
       <c r="D13">
-        <v>0.09470040390853285</v>
+        <v>0.1494419287012079</v>
       </c>
       <c r="E13">
-        <v>0.1522965452825318</v>
+        <v>0.2165533918826341</v>
       </c>
       <c r="F13">
-        <v>2.817976474662643</v>
+        <v>2.429869038331489</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.384221512768022</v>
+        <v>1.008803473318203</v>
       </c>
       <c r="J13">
-        <v>0.2396788411433022</v>
+        <v>0.3263442922845741</v>
       </c>
       <c r="K13">
-        <v>1.29940034505529</v>
+        <v>2.750509565655648</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.479910205533386</v>
+        <v>1.216336618496925</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9708662621333133</v>
+        <v>2.100918437824873</v>
       </c>
       <c r="C14">
-        <v>0.3282297064401121</v>
+        <v>0.6341477673872191</v>
       </c>
       <c r="D14">
-        <v>0.09408191261927357</v>
+        <v>0.1467406601857988</v>
       </c>
       <c r="E14">
-        <v>0.15149874865633</v>
+        <v>0.2127831218512668</v>
       </c>
       <c r="F14">
-        <v>2.813392350290613</v>
+        <v>2.400492802775261</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.38325491849843</v>
+        <v>0.9999371877313195</v>
       </c>
       <c r="J14">
-        <v>0.2385571930909407</v>
+        <v>0.3208502744700041</v>
       </c>
       <c r="K14">
-        <v>1.287292245936527</v>
+        <v>2.699569687675904</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.482512034789238</v>
+        <v>1.221729894779614</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9649981471704905</v>
+        <v>2.076710054641978</v>
       </c>
       <c r="C15">
-        <v>0.3265796142914894</v>
+        <v>0.6268621717858593</v>
       </c>
       <c r="D15">
-        <v>0.09370385894267486</v>
+        <v>0.1450892897038187</v>
       </c>
       <c r="E15">
-        <v>0.1510115527514202</v>
+        <v>0.2104813602761055</v>
       </c>
       <c r="F15">
-        <v>2.810610451141017</v>
+        <v>2.382615471956541</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.382674819222736</v>
+        <v>0.9945569235555709</v>
       </c>
       <c r="J15">
-        <v>0.2378726190697336</v>
+        <v>0.3174989864532449</v>
       </c>
       <c r="K15">
-        <v>1.279887705305896</v>
+        <v>2.668457189170766</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.484120088820973</v>
+        <v>1.225083921947459</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9315031716757858</v>
+        <v>1.938907599715918</v>
       </c>
       <c r="C16">
-        <v>0.3171752668032184</v>
+        <v>0.5854925681680072</v>
       </c>
       <c r="D16">
-        <v>0.09154952232107405</v>
+        <v>0.1356730160645299</v>
       </c>
       <c r="E16">
-        <v>0.148242270340873</v>
+        <v>0.1974024860511463</v>
       </c>
       <c r="F16">
-        <v>2.795066865316443</v>
+        <v>2.281881239585658</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.379533786977774</v>
+        <v>0.9644711372766892</v>
       </c>
       <c r="J16">
-        <v>0.2339873815184319</v>
+        <v>0.2984981972379046</v>
       </c>
       <c r="K16">
-        <v>1.237639404777156</v>
+        <v>2.491468104744229</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.493555079582023</v>
+        <v>1.245056059467885</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9110736169458278</v>
+        <v>1.855144118627379</v>
       </c>
       <c r="C17">
-        <v>0.3114520009980879</v>
+        <v>0.560432587901829</v>
       </c>
       <c r="D17">
-        <v>0.09023876444084067</v>
+        <v>0.1299357950158253</v>
       </c>
       <c r="E17">
-        <v>0.1465636005731312</v>
+        <v>0.1894728559548682</v>
       </c>
       <c r="F17">
-        <v>2.785886513406737</v>
+        <v>2.221538121848596</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.377770250478875</v>
+        <v>0.9466499546806588</v>
       </c>
       <c r="J17">
-        <v>0.2316375764879268</v>
+        <v>0.2870136429184242</v>
       </c>
       <c r="K17">
-        <v>1.211885634241668</v>
+        <v>2.383981344556986</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.499539137773297</v>
+        <v>1.257955603926732</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.899366640933863</v>
+        <v>1.807229953024745</v>
       </c>
       <c r="C18">
-        <v>0.3081769927461266</v>
+        <v>0.5461278685427544</v>
       </c>
       <c r="D18">
-        <v>0.08948885277109753</v>
+        <v>0.126649352920623</v>
       </c>
       <c r="E18">
-        <v>0.1456054930735107</v>
+        <v>0.1849442353180493</v>
       </c>
       <c r="F18">
-        <v>2.78073660107033</v>
+        <v>2.187336121825481</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.376815890890114</v>
+        <v>0.9366215771336712</v>
       </c>
       <c r="J18">
-        <v>0.2302983823198161</v>
+        <v>0.2804672431239652</v>
       </c>
       <c r="K18">
-        <v>1.197133045249188</v>
+        <v>2.322530502352748</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.503052955670555</v>
+        <v>1.26560405285575</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8954103426145252</v>
+        <v>1.791050615488558</v>
       </c>
       <c r="C19">
-        <v>0.3070710235913907</v>
+        <v>0.5413025391939641</v>
       </c>
       <c r="D19">
-        <v>0.08923563392454525</v>
+        <v>0.1255388388283194</v>
       </c>
       <c r="E19">
-        <v>0.1452823682927118</v>
+        <v>0.1834162680905749</v>
       </c>
       <c r="F19">
-        <v>2.779015310707862</v>
+        <v>2.175840163411877</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.376503056773842</v>
+        <v>0.9332631875429342</v>
       </c>
       <c r="J19">
-        <v>0.2298470737540725</v>
+        <v>0.2782605552521886</v>
       </c>
       <c r="K19">
-        <v>1.192148424559775</v>
+        <v>2.301785756406019</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.504255023080361</v>
+        <v>1.268232199365983</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9132438693823417</v>
+        <v>1.864033083214281</v>
       </c>
       <c r="C20">
-        <v>0.3120595062557356</v>
+        <v>0.5630887949589294</v>
       </c>
       <c r="D20">
-        <v>0.09037788296335236</v>
+        <v>0.1305451172316765</v>
       </c>
       <c r="E20">
-        <v>0.1467415299417496</v>
+        <v>0.1903135883295448</v>
       </c>
       <c r="F20">
-        <v>2.786850280489276</v>
+        <v>2.227908777446345</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.37795177281636</v>
+        <v>0.9485238293015428</v>
       </c>
       <c r="J20">
-        <v>0.2318864384756978</v>
+        <v>0.2882299789093423</v>
       </c>
       <c r="K20">
-        <v>1.214620925465169</v>
+        <v>2.395384306719905</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.498894676571567</v>
+        <v>1.256558532461341</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9736825320529761</v>
+        <v>2.112544157927914</v>
       </c>
       <c r="C21">
-        <v>0.3290218858192873</v>
+        <v>0.6376484605841313</v>
       </c>
       <c r="D21">
-        <v>0.09426341391038306</v>
+        <v>0.147533408018063</v>
       </c>
       <c r="E21">
-        <v>0.1517327729250368</v>
+        <v>0.2138889364646914</v>
       </c>
       <c r="F21">
-        <v>2.814733397683355</v>
+        <v>2.409096869633601</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.383536336264996</v>
+        <v>1.002530816206168</v>
       </c>
       <c r="J21">
-        <v>0.2388861339178874</v>
+        <v>0.3224610680811111</v>
       </c>
       <c r="K21">
-        <v>1.290846183014111</v>
+        <v>2.714513110774533</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.481744821705547</v>
+        <v>1.220135182157051</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.013570527292586</v>
+        <v>2.277755664855192</v>
       </c>
       <c r="C22">
-        <v>0.3402588151399186</v>
+        <v>0.6875276634326326</v>
       </c>
       <c r="D22">
-        <v>0.09683822632078432</v>
+        <v>0.1587782407820555</v>
       </c>
       <c r="E22">
-        <v>0.1550609635158651</v>
+        <v>0.2296326209564228</v>
       </c>
       <c r="F22">
-        <v>2.834120401188855</v>
+        <v>2.532647811510387</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.387721642510087</v>
+        <v>1.040059927061918</v>
       </c>
       <c r="J22">
-        <v>0.2435712402599393</v>
+        <v>0.3454469405404978</v>
       </c>
       <c r="K22">
-        <v>1.34120165432185</v>
+        <v>2.927017833952334</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.471178829844646</v>
+        <v>1.198565767432854</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9922460700461784</v>
+        <v>2.189300735302027</v>
       </c>
       <c r="C23">
-        <v>0.3342475922457595</v>
+        <v>0.6607917482679966</v>
       </c>
       <c r="D23">
-        <v>0.09546077353677163</v>
+        <v>0.1527625298473936</v>
       </c>
       <c r="E23">
-        <v>0.1532785921243374</v>
+        <v>0.2211967089105684</v>
       </c>
       <c r="F23">
-        <v>2.823666573541075</v>
+        <v>2.46620413700758</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.385438803817422</v>
+        <v>1.019812465254887</v>
       </c>
       <c r="J23">
-        <v>0.2410605890286348</v>
+        <v>0.333118318679837</v>
       </c>
       <c r="K23">
-        <v>1.314276732149125</v>
+        <v>2.813208203260018</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.476759230073668</v>
+        <v>1.209863109948984</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9122625791182202</v>
+        <v>1.860013631470679</v>
       </c>
       <c r="C24">
-        <v>0.3117848052527563</v>
+        <v>0.56188760608606</v>
       </c>
       <c r="D24">
-        <v>0.09031497607631422</v>
+        <v>0.1302696056340693</v>
       </c>
       <c r="E24">
-        <v>0.1466610663279013</v>
+        <v>0.1899333995813777</v>
       </c>
       <c r="F24">
-        <v>2.786414162706535</v>
+        <v>2.225027084353258</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.377869521164669</v>
+        <v>0.9476759766178589</v>
       </c>
       <c r="J24">
-        <v>0.2317738914090484</v>
+        <v>0.2876798992096923</v>
       </c>
       <c r="K24">
-        <v>1.213384133365366</v>
+        <v>2.39022796036619</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.499185808514724</v>
+        <v>1.257189426915858</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8276527040742963</v>
+        <v>1.514725563059073</v>
       </c>
       <c r="C25">
-        <v>0.2881991530480832</v>
+        <v>0.4592930225862801</v>
       </c>
       <c r="D25">
-        <v>0.08491751243845158</v>
+        <v>0.1065113116494558</v>
       </c>
       <c r="E25">
-        <v>0.1398065722140842</v>
+        <v>0.157422920671749</v>
       </c>
       <c r="F25">
-        <v>2.751214431737068</v>
+        <v>1.983922018402396</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.371997131505609</v>
+        <v>0.8782294313340344</v>
       </c>
       <c r="J25">
-        <v>0.2222286259927131</v>
+        <v>0.2408907573474011</v>
       </c>
       <c r="K25">
-        <v>1.106859545683704</v>
+        <v>1.947937155813605</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.526126182015986</v>
+        <v>1.316902375614163</v>
       </c>
       <c r="O25">
         <v>0</v>
